--- a/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
@@ -7741,97 +7741,97 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7924,12 +7924,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>19616</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3412</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7426</t>
+          <t>7962</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6930</t>
+          <t>7857</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12079</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14315</t>
+          <t>15883</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11341</t>
+          <t>12725</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17771</t>
+          <t>20051</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>140797</t>
+          <t>157268</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>138384</t>
+          <t>154839</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>142398</t>
+          <t>159101</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>133589</t>
+          <t>158217</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>130812</t>
+          <t>155278</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>135961</t>
+          <t>160710</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>274386</t>
+          <t>315485</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>270930</t>
+          <t>311317</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>277360</t>
+          <t>318643</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>5791</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10019</t>
+          <t>9981</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7596</t>
+          <t>7567</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13056</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>14149</t>
+          <t>13669</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>11204</t>
+          <t>10651</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17675</t>
+          <t>17252</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77043</t>
+          <t>86737</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74729</t>
+          <t>84634</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78598</t>
+          <t>88085</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99098</t>
+          <t>112687</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96061</t>
+          <t>109873</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>101521</t>
+          <t>115101</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>176140</t>
+          <t>199424</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>172614</t>
+          <t>195841</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>179085</t>
+          <t>202442</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>95,0%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8092</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>8117</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4527</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6545</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12619</t>
+          <t>10097</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9706</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16264</t>
+          <t>13002</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>155764</t>
+          <t>148053</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>152739</t>
+          <t>145767</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>157966</t>
+          <t>149583</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58618</t>
+          <t>57351</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56600</t>
+          <t>55586</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60146</t>
+          <t>58937</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>214382</t>
+          <t>205404</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210737</t>
+          <t>202499</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>217295</t>
+          <t>207476</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9436</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7232</t>
+          <t>6851</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12356</t>
+          <t>12254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>15029</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13179</t>
+          <t>12219</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20084</t>
+          <t>18510</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25684</t>
+          <t>24331</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21777</t>
+          <t>20598</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>30750</t>
+          <t>28355</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160653</t>
+          <t>160417</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>157733</t>
+          <t>157465</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>162857</t>
+          <t>162868</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>160935</t>
+          <t>167161</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>157099</t>
+          <t>163680</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>164004</t>
+          <t>169971</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>321587</t>
+          <t>327578</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>316521</t>
+          <t>323554</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>325494</t>
+          <t>331311</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>94,15%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12764</t>
+          <t>10817</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10104</t>
+          <t>8463</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16141</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>16141</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12869</t>
+          <t>10780</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19983</t>
+          <t>16348</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>73474</t>
+          <t>71888</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>71332</t>
+          <t>70337</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74871</t>
+          <t>72930</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>120168</t>
+          <t>114599</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>116791</t>
+          <t>111902</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122828</t>
+          <t>116953</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>193642</t>
+          <t>186487</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>189800</t>
+          <t>183519</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>196914</t>
+          <t>189087</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14724</t>
+          <t>14062</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>11503</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17843</t>
+          <t>17313</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15896</t>
+          <t>15326</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12564</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19195</t>
+          <t>18734</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44089</t>
+          <t>54340</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>42643</t>
+          <t>52706</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44771</t>
+          <t>55146</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>103553</t>
+          <t>108539</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>100434</t>
+          <t>105288</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>106899</t>
+          <t>111098</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>147642</t>
+          <t>162878</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>144343</t>
+          <t>159470</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>150974</t>
+          <t>165923</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>93,11%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26160</t>
+          <t>23422</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36508</t>
+          <t>32837</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>67584</t>
+          <t>64505</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>60623</t>
+          <t>58463</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>74156</t>
+          <t>71756</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>98803</t>
+          <t>92686</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>89819</t>
+          <t>84592</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>107774</t>
+          <t>100383</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,74%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>651820</t>
+          <t>678702</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>646531</t>
+          <t>674046</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>656879</t>
+          <t>683461</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>675960</t>
+          <t>718554</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>669388</t>
+          <t>711303</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>682921</t>
+          <t>724596</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1327780</t>
+          <t>1397255</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1318809</t>
+          <t>1389558</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1336764</t>
+          <t>1405349</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,32%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5188</t>
+          <t>4770</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17861</t>
+          <t>17796</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8844</t>
+          <t>8539</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23056</t>
+          <t>21158</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16707</t>
+          <t>16124</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35780</t>
+          <t>34394</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>348822</t>
+          <t>348887</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>361495</t>
+          <t>361913</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>275845</t>
+          <t>277743</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>290057</t>
+          <t>290362</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>629804</t>
+          <t>631190</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>648877</t>
+          <t>649460</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,58%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11217</t>
+          <t>10305</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14047</t>
+          <t>13502</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8546</t>
+          <t>8563</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21029</t>
+          <t>20395</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>312830</t>
+          <t>313742</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>322394</t>
+          <t>322426</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>246034</t>
+          <t>246579</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>255349</t>
+          <t>255117</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>563099</t>
+          <t>563733</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>575582</t>
+          <t>575565</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>98,53%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11985</t>
+          <t>11572</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16872</t>
+          <t>16492</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30709</t>
+          <t>30315</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463439</t>
+          <t>463852</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>475085</t>
+          <t>475305</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>99,97%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80692</t>
+          <t>81072</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90384</t>
+          <t>90381</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>542279</t>
+          <t>542673</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>568961</t>
+          <t>568212</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>99,17%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8308</t>
+          <t>8373</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>23489</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9226</t>
+          <t>7353</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39379</t>
+          <t>38916</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22335</t>
+          <t>21530</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>51354</t>
+          <t>52108</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>513774</t>
+          <t>512666</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>527847</t>
+          <t>527782</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>596929</t>
+          <t>597392</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>627082</t>
+          <t>628955</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1121108</t>
+          <t>1120354</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1150127</t>
+          <t>1150932</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,16%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9440</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13042</t>
+          <t>12130</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32426</t>
+          <t>31901</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>16757</t>
+          <t>16493</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>34582</t>
+          <t>34869</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>201292</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>210556</t>
+          <t>210568</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>391523</t>
+          <t>392048</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>410907</t>
+          <t>411819</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>600099</t>
+          <t>599812</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>617924</t>
+          <t>618188</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,4%</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9873</t>
+          <t>10356</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5118,42 +5118,42 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29019</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20622</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>41293</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>5,92%</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>29019</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>20393</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>40573</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21160</t>
+          <t>21019</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>42761</t>
+          <t>42820</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>156888</t>
+          <t>156405</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -5226,47 +5226,47 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>93,79%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>460949</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>448675</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>469346</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>94,08%</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>460949</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>449395</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>469575</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>613968</t>
+          <t>613909</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>635569</t>
+          <t>635710</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,8%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22884</t>
+          <t>23802</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>50201</t>
+          <t>53072</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>78371</t>
+          <t>74966</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>134822</t>
+          <t>131277</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>115527</t>
+          <t>115060</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>175129</t>
+          <t>172335</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2029601</t>
+          <t>2026730</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2056918</t>
+          <t>2056000</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2071949</t>
+          <t>2075494</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2128400</t>
+          <t>2131805</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4111444</t>
+          <t>4114238</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4171046</t>
+          <t>4171513</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>97,32%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>10020</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>4788</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7962</t>
+          <t>18081</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>15483</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7857</t>
+          <t>9613</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13289</t>
+          <t>23275</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15883</t>
+          <t>25503</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12725</t>
+          <t>17554</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20051</t>
+          <t>36585</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>157268</t>
+          <t>385367</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>154839</t>
+          <t>377306</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159101</t>
+          <t>390599</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>158217</t>
+          <t>312143</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>155278</t>
+          <t>304351</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>160710</t>
+          <t>318013</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>822</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>315485</t>
+          <t>697510</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>311317</t>
+          <t>686428</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>318643</t>
+          <t>705459</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>97,57%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5791</t>
+          <t>10494</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9981</t>
+          <t>8921</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7567</t>
+          <t>5196</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12795</t>
+          <t>13908</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>13669</t>
+          <t>13613</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10651</t>
+          <t>8722</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>17252</t>
+          <t>20870</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86737</t>
+          <t>339655</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84634</t>
+          <t>333853</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88085</t>
+          <t>342747</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>378</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>112687</t>
+          <t>278019</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>109873</t>
+          <t>273032</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>115101</t>
+          <t>281744</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>707</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>199424</t>
+          <t>617674</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>195841</t>
+          <t>610417</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>202442</t>
+          <t>622565</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>98,62%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>4787</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8117</t>
+          <t>10325</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>12570</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>7849</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>18331</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10097</t>
+          <t>17357</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8025</t>
+          <t>11630</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13002</t>
+          <t>25169</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>148053</t>
+          <t>255769</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145767</t>
+          <t>250231</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149583</t>
+          <t>258665</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57351</t>
+          <t>98916</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55586</t>
+          <t>93155</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58937</t>
+          <t>103637</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>205404</t>
+          <t>354686</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>202499</t>
+          <t>346874</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>207476</t>
+          <t>360413</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>18638</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>10867</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12254</t>
+          <t>29915</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15029</t>
+          <t>25879</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12219</t>
+          <t>18953</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18510</t>
+          <t>35842</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>24331</t>
+          <t>44518</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20598</t>
+          <t>33327</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28355</t>
+          <t>57871</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>160417</t>
+          <t>591344</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>157465</t>
+          <t>580067</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>162868</t>
+          <t>599115</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>629</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>167161</t>
+          <t>463943</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>163680</t>
+          <t>453980</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>169971</t>
+          <t>470869</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>327578</t>
+          <t>1055285</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>323554</t>
+          <t>1041932</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>331311</t>
+          <t>1066476</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>3605</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>732</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>10032</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10817</t>
+          <t>26965</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8463</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13514</t>
+          <t>35535</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13380</t>
+          <t>30570</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10780</t>
+          <t>23009</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16348</t>
+          <t>41081</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71888</t>
+          <t>249241</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70337</t>
+          <t>242814</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72930</t>
+          <t>252114</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>541</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>114599</t>
+          <t>381054</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>111902</t>
+          <t>372484</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>116953</t>
+          <t>388632</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>769</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>186487</t>
+          <t>630296</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>183519</t>
+          <t>619785</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>189087</t>
+          <t>637857</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>96,52%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>9768</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14062</t>
+          <t>30002</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11503</t>
+          <t>21359</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17313</t>
+          <t>42394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15326</t>
+          <t>31657</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12281</t>
+          <t>21834</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18734</t>
+          <t>43681</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54340</t>
+          <t>167842</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52706</t>
+          <t>159729</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55146</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>655</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>108539</t>
+          <t>516872</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>105288</t>
+          <t>504480</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111098</t>
+          <t>525515</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>732</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>162878</t>
+          <t>684714</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>159470</t>
+          <t>672690</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>165923</t>
+          <t>694537</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>96,95%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28181</t>
+          <t>43398</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23422</t>
+          <t>32266</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32837</t>
+          <t>60721</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>64505</t>
+          <t>119821</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>58463</t>
+          <t>103487</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>71756</t>
+          <t>136963</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>227</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>92686</t>
+          <t>163218</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>84592</t>
+          <t>141821</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>100383</t>
+          <t>187120</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3824</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>678702</t>
+          <t>1989217</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>674046</t>
+          <t>1971894</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>683461</t>
+          <t>2000349</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4008</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>718554</t>
+          <t>2050947</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>711303</t>
+          <t>2033805</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>724596</t>
+          <t>2067281</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7832</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1397255</t>
+          <t>4040165</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1389558</t>
+          <t>4016263</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1405349</t>
+          <t>4061562</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>96,63%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9929</t>
+          <t>9038</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>5073</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17796</t>
+          <t>15406</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13993</t>
+          <t>23464</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8539</t>
+          <t>16789</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21158</t>
+          <t>32096</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>32502</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16124</t>
+          <t>24251</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34394</t>
+          <t>42696</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>356754</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>348887</t>
+          <t>280117</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>361913</t>
+          <t>290450</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>431</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>284908</t>
+          <t>253236</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>277743</t>
+          <t>244604</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>290362</t>
+          <t>259911</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>933</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>641662</t>
+          <t>539720</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>631190</t>
+          <t>529526</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>649460</t>
+          <t>547971</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>95,76%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4664</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10305</t>
+          <t>6879</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8694</t>
+          <t>9288</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13502</t>
+          <t>14960</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>13358</t>
+          <t>12620</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8563</t>
+          <t>8266</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20395</t>
+          <t>18764</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>319383</t>
+          <t>192440</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>313742</t>
+          <t>188893</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>322426</t>
+          <t>194368</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>376</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>251387</t>
+          <t>222691</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>246579</t>
+          <t>217019</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>255117</t>
+          <t>226393</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>570770</t>
+          <t>415130</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>563733</t>
+          <t>408986</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>575565</t>
+          <t>419484</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,07%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11572</t>
+          <t>7985</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10568</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>11161</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7183</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16492</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>16,9%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15194</t>
+          <t>9135</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>5354</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>30315</t>
+          <t>14492</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>471391</t>
+          <t>177937</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463852</t>
+          <t>172886</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>475305</t>
+          <t>179857</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,97%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86403</t>
+          <t>76599</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81072</t>
+          <t>72232</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90381</t>
+          <t>79281</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>483</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>557794</t>
+          <t>254537</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>542673</t>
+          <t>249180</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>568212</t>
+          <t>258318</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>97,97%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14054</t>
+          <t>5267</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8373</t>
+          <t>2904</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23489</t>
+          <t>9656</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23566</t>
+          <t>18564</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7353</t>
+          <t>12749</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38916</t>
+          <t>26316</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>37620</t>
+          <t>23830</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>21530</t>
+          <t>17135</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>52108</t>
+          <t>32514</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>522101</t>
+          <t>303166</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>512666</t>
+          <t>298777</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>527782</t>
+          <t>305529</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>612742</t>
+          <t>297399</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>597392</t>
+          <t>289647</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>628955</t>
+          <t>303214</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1134842</t>
+          <t>600566</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1120354</t>
+          <t>591882</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1150932</t>
+          <t>607261</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>459</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23272</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12130</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31901</t>
+          <t>12168</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>25674</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>16493</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>34869</t>
+          <t>14604</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>208330</t>
+          <t>148623</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>146621</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>210568</t>
+          <t>149826</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>400677</t>
+          <t>147307</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>392048</t>
+          <t>142900</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>411819</t>
+          <t>150621</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>506</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>609007</t>
+          <t>295931</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>599812</t>
+          <t>290750</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>618188</t>
+          <t>299523</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>10356</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>29019</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>20622</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>41293</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>30825</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21019</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>42820</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>164956</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>156405</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11434</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>460949</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>448675</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>469346</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>625904</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>613909</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>635710</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36886</t>
+          <t>22233</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23802</t>
+          <t>16004</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>53072</t>
+          <t>30798</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>109706</t>
+          <t>65278</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>74966</t>
+          <t>54410</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>131277</t>
+          <t>80114</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>146592</t>
+          <t>87511</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>115060</t>
+          <t>75563</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>172335</t>
+          <t>103868</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2042916</t>
+          <t>1117998</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2026730</t>
+          <t>1109433</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2056000</t>
+          <t>1124227</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2779</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2097065</t>
+          <t>1008667</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2075494</t>
+          <t>993831</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2131805</t>
+          <t>1019535</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4602</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4139981</t>
+          <t>2126665</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4114238</t>
+          <t>2110308</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4171513</t>
+          <t>2138613</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>96,59%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9038</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15406</t>
+          <t>7962</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23464</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16789</t>
+          <t>7857</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32096</t>
+          <t>13289</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>32502</t>
+          <t>15883</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24251</t>
+          <t>12725</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>42696</t>
+          <t>20051</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>825</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>286485</t>
+          <t>157268</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>280117</t>
+          <t>154839</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>290450</t>
+          <t>159101</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>821</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>253236</t>
+          <t>158217</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>244604</t>
+          <t>155278</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>259911</t>
+          <t>160710</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>95,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>539720</t>
+          <t>315485</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>529526</t>
+          <t>311317</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>547971</t>
+          <t>318643</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2340</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6879</t>
+          <t>5791</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9288</t>
+          <t>9981</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>7567</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14960</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>12620</t>
+          <t>13669</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8266</t>
+          <t>10651</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>18764</t>
+          <t>17252</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>192440</t>
+          <t>86737</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>188893</t>
+          <t>84634</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194368</t>
+          <t>88085</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>617</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>222691</t>
+          <t>112687</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>217019</t>
+          <t>109873</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>226393</t>
+          <t>115101</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>415130</t>
+          <t>199424</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>408986</t>
+          <t>195841</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>419484</t>
+          <t>202442</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>95,0%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7985</t>
+          <t>8117</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3519</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10568</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9135</t>
+          <t>10097</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5354</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14492</t>
+          <t>13002</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>177937</t>
+          <t>148053</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172886</t>
+          <t>145767</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>179857</t>
+          <t>149583</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76599</t>
+          <t>57351</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>72232</t>
+          <t>55586</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79281</t>
+          <t>58937</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>254537</t>
+          <t>205404</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>249180</t>
+          <t>202499</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>258318</t>
+          <t>207476</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5267</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>6851</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9656</t>
+          <t>12254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18564</t>
+          <t>15029</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12749</t>
+          <t>12219</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26316</t>
+          <t>18510</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>145</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23830</t>
+          <t>24331</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17135</t>
+          <t>20598</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32514</t>
+          <t>28355</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>950</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>303166</t>
+          <t>160417</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>298777</t>
+          <t>157465</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>305529</t>
+          <t>162868</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>947</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>297399</t>
+          <t>167161</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>289647</t>
+          <t>163680</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>303214</t>
+          <t>169971</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>600566</t>
+          <t>327578</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>591882</t>
+          <t>323554</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>607261</t>
+          <t>331311</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>94,15%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>10817</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>8463</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>12168</t>
+          <t>13514</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>10780</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>14604</t>
+          <t>16348</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>148623</t>
+          <t>71888</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>146621</t>
+          <t>70337</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>149826</t>
+          <t>72930</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>147307</t>
+          <t>114599</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>142900</t>
+          <t>111902</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>150621</t>
+          <t>116953</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>295931</t>
+          <t>186487</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>290750</t>
+          <t>183519</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>299523</t>
+          <t>189087</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>94,61%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14062</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11503</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17313</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15326</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12281</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18734</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>54340</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>52706</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55146</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>108539</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>105288</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>111098</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>870</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>162878</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>159470</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>165923</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,11%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>22233</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16004</t>
+          <t>23422</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30798</t>
+          <t>32837</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>65278</t>
+          <t>64505</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>54410</t>
+          <t>58463</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>80114</t>
+          <t>71756</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>87511</t>
+          <t>92686</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>75563</t>
+          <t>84592</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>103868</t>
+          <t>100383</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,74%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1117998</t>
+          <t>678702</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1109433</t>
+          <t>674046</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1124227</t>
+          <t>683461</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1008667</t>
+          <t>718554</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>993831</t>
+          <t>711303</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1019535</t>
+          <t>724596</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3761</t>
+          <t>7832</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2126665</t>
+          <t>1397255</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2110308</t>
+          <t>1389558</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2138613</t>
+          <t>1405349</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>94,32%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
